--- a/src/main/file/example/submit.xlsx
+++ b/src/main/file/example/submit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/IdeaProjects/auto_git/src/main/file/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="3660" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="12080" yWindow="3480" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,33 +27,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>udid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schemas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfa232sak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yqbnative://app.1qianbao.com/huoqianbao/index</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>yqbnative://app.1qianbao.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_use_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have_parmaeter_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huoqianbao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额+活钱宝</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo qian bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqbnative://app.2qianbao.com/</t>
+  </si>
+  <si>
+    <t>yqbnative://app.3qianbao.com/</t>
+  </si>
+  <si>
+    <t>f2fpay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店面付（支付码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再支持</t>
+    <rPh sb="0" eb="1">
+      <t>bu zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单</t>
+    <rPh sb="0" eb="1">
+      <t>zhang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{tplId:"",tplParams:{typeCode:"筛选条件",typeName:"页面展示标题"}}</t>
+    <rPh sb="31" eb="32">
+      <t>shai xuan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tiao j</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhan shi</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>biao t</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,154 +472,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4723</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/file/example/submit.xlsx
+++ b/src/main/file/example/submit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>yqbnative://app.1qianbao.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
     <rPh sb="51" eb="52">
       <t>biao t</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +479,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,8 +545,20 @@
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -561,11 +577,20 @@
       <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -587,8 +612,17 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/file/example/submit.xlsx
+++ b/src/main/file/example/submit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="3480" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8560" yWindow="4900" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>yqbnative://app.1qianbao.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>meaning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +50,6 @@
   </si>
   <si>
     <t>have_parmaeter_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huoqianbao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,16 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yqbnative://app.2qianbao.com/</t>
-  </si>
-  <si>
-    <t>yqbnative://app.3qianbao.com/</t>
-  </si>
-  <si>
-    <t>f2fpay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>店面付（支付码）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账单</t>
     <rPh sb="0" eb="1">
       <t>zhang dan</t>
@@ -150,6 +112,26 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqbnative://app.1qianbao.com/huoqianbao/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqbnative://app.2qianbao.com/f2fpay/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yqbnative://app.3qianbao.com/bill/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,153 +458,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/file/example/submit.xlsx
+++ b/src/main/file/example/submit.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,5 +589,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>